--- a/01_Input/00_CO Validation/Kyrgyzstan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Kyrgyzstan - Energy Projects.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27230"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/lira_zholdubaeva_undp_org/Documents/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB5722E-A236-4CC9-A50E-F021426AD6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{3CB5722E-A236-4CC9-A50E-F021426AD6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6DFF81E-4CB6-4111-93EA-37E7504650D1}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects" sheetId="1" r:id="rId1"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Projects" sheetId="1" r:id="rId2"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>Project ID</t>
   </si>
@@ -66,58 +70,163 @@
     <t>Donors</t>
   </si>
   <si>
+    <t>Gender (% female)</t>
+  </si>
+  <si>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>SEH Taxonomy</t>
+  </si>
+  <si>
+    <t>RISE Taxonomy</t>
+  </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Indirect Category</t>
+  </si>
+  <si>
+    <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
+    <t>00131399 (UNDP CO TRAC)</t>
+  </si>
+  <si>
+    <t>National Human Development Report (NHDR) on Energy-Induced Vulnerabilities in the Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>https://www.undp.org/kyrgyzstan/projects/national-human-development-report-2024-energy-induced-vulnerabilities</t>
+  </si>
+  <si>
+    <t>Just energy transition considerations are included in the national medium- and long-term climate policies and their action plans (NDC and LTS)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Through NHDR we aim to influence the development of the key national climate policies in a human-oriented way, with strong consideration of just energy transition issues</t>
+  </si>
+  <si>
+    <t>UNDP (funded by TRAC)</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>NDC Support</t>
+  </si>
+  <si>
+    <t>Decarbonization</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
+    <t># of policymakers trained on human development and just energy transition</t>
+  </si>
+  <si>
+    <t>Through multi-stakeholder policy dialogues and other events associated with NHDR we will improve policymaker's awareness on the inter-relations between human development, energy and energy transition</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>statistical evidence on just energy transition is provided</t>
+  </si>
+  <si>
+    <t>The NHDR is meant as a major and first input on the national level in Kyrgyzstan on the solid statistical evidence on considerations for a just energy transition</t>
+  </si>
+  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -126,7 +235,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -141,13 +253,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -156,61 +265,22 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
-  </si>
-  <si>
-    <t>00131399 (UNDP CO TRAC)</t>
-  </si>
-  <si>
-    <t>https://www.undp.org/kyrgyzstan/projects/national-human-development-report-2024-energy-induced-vulnerabilities</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Just energy transition considerations are included in the national medium- and long-term climate policies and their action plans (NDC and LTS)</t>
-  </si>
-  <si>
-    <t>National Human Development Report (NHDR) on Energy-Induced Vulnerabilities in the Kyrgyz Republic</t>
-  </si>
-  <si>
-    <t>UNDP (funded by TRAC)</t>
-  </si>
-  <si>
-    <t>Through NHDR we aim to influence the development of the key national climate policies in a human-oriented way, with strong consideration of just energy transition issues</t>
-  </si>
-  <si>
-    <t>Through multi-stakeholder policy dialogues and other events associated with NHDR we will improve policymaker's awareness on the inter-relations between human development, energy and energy transition</t>
-  </si>
-  <si>
-    <t># of policymakers trained on human development and just energy transition</t>
-  </si>
-  <si>
-    <t>statistical evidence on just energy transition is provided</t>
-  </si>
-  <si>
-    <t>The NHDR is meant as a major and first input on the national level in Kyrgyzstan on the solid statistical evidence on considerations for a just energy transition</t>
   </si>
 </sst>
 </file>
@@ -221,12 +291,18 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,52 +342,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -361,122 +429,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,9 +768,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -537,9 +808,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,26 +843,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,26 +878,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -816,190 +1053,526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1CFC50-6E5B-4618-AA3C-ED76A3CED06B}">
+  <dimension ref="A1:W13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="3"/>
+    <col min="12" max="12" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="3"/>
+    <col min="14" max="14" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="3"/>
+    <col min="17" max="17" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="36.75" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="41">
+        <v>164532</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="N2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="58"/>
+      <c r="T2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="58"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="45.75">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="32">
+        <v>5</v>
+      </c>
+      <c r="H3" s="33">
+        <v>100</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="58"/>
+    </row>
+    <row r="4" spans="1:23" ht="45.75">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="58"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" s="7"/>
+      <c r="E5"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" s="8"/>
+    </row>
+  </sheetData>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{0D41D4D5-34B3-44A8-B74A-53E7AF2769E1}">
+      <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{945C39A8-437F-45E4-B98F-3488B4950385}">
+      <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{0BD415CA-99BA-4F19-BCF3-73E04F7B9E39}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{5EF75E08-BF5C-49D5-BEE5-53C17D67DFA2}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{F59AABED-B983-467E-BCF7-1A812985C9EA}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{CFDF5285-9EA3-4A57-BFDC-B47986FE2624}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{418A9460-490D-4C7E-8EE4-ACF3DE6E5D3B}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4" xr:uid="{DD712BEA-9799-47CD-9B17-E6C6291EB4C8}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{0813E740-DEA4-4158-8CFF-1B580631D927}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{666C729F-C704-4576-B235-12A813044327}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4C4CACEB-E031-4F7E-887B-ECA34423EAEB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E07A994B-7CE4-4FC7-AFA3-31DCEC2150E5}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
-    <col min="2" max="3" width="41.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="35" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="41.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="29">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="62">
         <v>164.53200000000001</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="5" t="s">
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45.75">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="24">
+      <c r="G3" s="21">
         <v>5</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="22">
         <v>100</v>
       </c>
-      <c r="I3" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="28"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="61"/>
+    </row>
+    <row r="4" spans="1:10" ht="45.75">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="7"/>
       <c r="E5"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1018,7 +1591,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
@@ -1028,193 +1601,224 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="B1" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45.75">
+      <c r="A6" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" t="s">
+      <c r="B21" s="70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
+      <c r="B22" s="69" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="2118ca5656997e1e9dd4e9e5bf9c0337">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0684f9dbe2d4f4c126d74c986685da8a" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1238,6 +1842,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1307,18 +1912,23 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Теги изображений" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="f8ebb0a5-c57d-4c3a-bec7-8a38252dd05c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="f8ebb0a5-c57d-4c3a-bec7-8a38252dd05c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Общий доступ с использованием" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -1337,7 +1947,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Совместно с подробностями" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -1365,8 +1975,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Тип контента"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Название"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1455,45 +2065,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70D4F15A-A8EA-4255-B465-F9A5372842FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54CE759C-AA91-43D2-9345-F4ADBEF6760C}"/>
 </file>
--- a/01_Input/00_CO Validation/Kyrgyzstan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Kyrgyzstan - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/lira_zholdubaeva_undp_org/Documents/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{3CB5722E-A236-4CC9-A50E-F021426AD6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6DFF81E-4CB6-4111-93EA-37E7504650D1}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{3CB5722E-A236-4CC9-A50E-F021426AD6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20F79FB7-2781-4BDA-9D63-302F618645FD}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,24 +145,27 @@
     <t>National</t>
   </si>
   <si>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t># of policymakers trained on human development and just energy transition</t>
+  </si>
+  <si>
+    <t>Through multi-stakeholder policy dialogues and other events associated with NHDR we will improve policymaker's awareness on the inter-relations between human development, energy and energy transition</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>statistical evidence on just energy transition is provided</t>
+  </si>
+  <si>
+    <t>The NHDR is meant as a major and first input on the national level in Kyrgyzstan on the solid statistical evidence on considerations for a just energy transition</t>
+  </si>
+  <si>
     <t>Capacity Training</t>
   </si>
   <si>
-    <t># of policymakers trained on human development and just energy transition</t>
-  </si>
-  <si>
-    <t>Through multi-stakeholder policy dialogues and other events associated with NHDR we will improve policymaker's awareness on the inter-relations between human development, energy and energy transition</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>statistical evidence on just energy transition is provided</t>
-  </si>
-  <si>
-    <t>The NHDR is meant as a major and first input on the national level in Kyrgyzstan on the solid statistical evidence on considerations for a just energy transition</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
@@ -251,9 +254,6 @@
   </si>
   <si>
     <t>Support for the development of small enterprises in the energy transition market</t>
-  </si>
-  <si>
-    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1479,7 +1479,7 @@
       <c r="C3" s="65"/>
       <c r="D3" s="63"/>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>36</v>
@@ -1625,127 +1625,127 @@
     </row>
     <row r="2" spans="1:2" ht="30.75">
       <c r="A2" s="68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.75">
       <c r="A4" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45.75">
       <c r="A6" s="68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75">
       <c r="A7" s="68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.75">
       <c r="A8" s="68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30.75">
       <c r="A9" s="68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.75">
       <c r="A10" s="68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.75">
       <c r="A12" s="68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="68" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B17" s="51" t="s">
         <v>72</v>
@@ -1797,28 +1797,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1843,6 +1823,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1922,6 +1903,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2065,8 +2051,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{539CF0E2-0616-48AC-9837-C9107369614F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2074,5 +2080,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54CE759C-AA91-43D2-9345-F4ADBEF6760C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>